--- a/MiniDashBoard.xlsx
+++ b/MiniDashBoard.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Science</t>
+          <t>Maths</t>
         </is>
       </c>
     </row>
